--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1175,7 +1175,7 @@
         <v>130669607</v>
       </c>
       <c r="B6" t="n">
-        <v>57877</v>
+        <v>57881</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY6"/>
+  <dimension ref="A1:AY11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,6 +1280,656 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>131106436</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5493</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>101410</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Reliktbock</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nothorhina muricata</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(Dalman, 1817)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Svartmyran, Mpd</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
+        <v>616762</v>
+      </c>
+      <c r="R7" t="n">
+        <v>6934714</v>
+      </c>
+      <c r="S7" t="n">
+        <v>10</v>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>2025_0743</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>11:39</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Två kläckhål</t>
+        </is>
+      </c>
+      <c r="AD7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG7" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT7" t="inlineStr"/>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131108352</v>
+      </c>
+      <c r="B8" t="n">
+        <v>80214</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>388</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Stiftgelélav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Collema furfuraceum</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Arnold) Du Rietz</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>S Svartmyran, Mpd</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>616863</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6934788</v>
+      </c>
+      <c r="S8" t="n">
+        <v>10</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>2025_0758</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>14:47</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131106422</v>
+      </c>
+      <c r="B9" t="n">
+        <v>80252</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6456</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Skinnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Leptogium saturninum</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Dicks.) Nyl.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>S Svartmyran, Mpd</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>616854</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6934782</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>2025_0757</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131106420</v>
+      </c>
+      <c r="B10" t="n">
+        <v>80377</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>6462</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Stuplav</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Nephroma bellum</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Spreng.) Tuck.</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>dm²</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>S Svartmyran, Mpd</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>616876</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6934813</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>2025_0759</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>14:51</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>14:51</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>Asp</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131106423</v>
+      </c>
+      <c r="B11" t="n">
+        <v>80348</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6458</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Lunglav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Lobaria pulmonaria</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>bålar</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>S Svartmyran, Mpd</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>616860</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6934783</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Medelpad</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Timrå</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2025_0756</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2025-07-02</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>14:43</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>På asp</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>David Isaksson</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Måns Svensson</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>Kustpaketet</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B7" t="n">
-        <v>5493</v>
+        <v>80214</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R7" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B8" t="n">
-        <v>80214</v>
+        <v>5493</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R8" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B7" t="n">
-        <v>80214</v>
+        <v>5493</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R7" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B8" t="n">
-        <v>5493</v>
+        <v>80214</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R8" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B7" t="n">
-        <v>5493</v>
+        <v>80215</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R7" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B8" t="n">
-        <v>80214</v>
+        <v>5493</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R8" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1545,7 +1545,7 @@
         <v>131106422</v>
       </c>
       <c r="B9" t="n">
-        <v>80252</v>
+        <v>80253</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>131106420</v>
       </c>
       <c r="B10" t="n">
-        <v>80377</v>
+        <v>80378</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>131106423</v>
       </c>
       <c r="B11" t="n">
-        <v>80348</v>
+        <v>80349</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B7" t="n">
-        <v>80215</v>
+        <v>5493</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R7" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B8" t="n">
-        <v>5493</v>
+        <v>80215</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R8" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B7" t="n">
-        <v>5493</v>
+        <v>80216</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R7" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B8" t="n">
-        <v>80215</v>
+        <v>5493</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R8" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
@@ -1545,7 +1545,7 @@
         <v>131106422</v>
       </c>
       <c r="B9" t="n">
-        <v>80253</v>
+        <v>80254</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1675,7 +1675,7 @@
         <v>131106420</v>
       </c>
       <c r="B10" t="n">
-        <v>80378</v>
+        <v>80379</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1805,7 +1805,7 @@
         <v>131106423</v>
       </c>
       <c r="B11" t="n">
-        <v>80349</v>
+        <v>80350</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>

--- a/artfynd/A 23282-2025 artfynd.xlsx
+++ b/artfynd/A 23282-2025 artfynd.xlsx
@@ -1282,10 +1282,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>131108352</v>
+        <v>131106436</v>
       </c>
       <c r="B7" t="n">
-        <v>80216</v>
+        <v>5493</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1293,43 +1293,43 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>388</v>
+        <v>101410</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Stiftgelélav</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Collema furfuraceum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Arnold) Du Rietz</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bålar</t>
+          <t>ex.</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>S Svartmyran, Mpd</t>
+          <t>Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>616863</v>
+        <v>616762</v>
       </c>
       <c r="R7" t="n">
-        <v>6934788</v>
+        <v>6934714</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1356,7 +1356,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>2025_0758</t>
+          <t>2025_0743</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>14:47</t>
+          <t>11:39</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>Asp</t>
+          <t>Två kläckhål</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Måns Svensson</t>
+          <t>David Isaksson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
@@ -1412,10 +1412,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131106436</v>
+        <v>131108352</v>
       </c>
       <c r="B8" t="n">
-        <v>5493</v>
+        <v>80216</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1423,43 +1423,43 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>101410</v>
+        <v>388</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Stiftgelélav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Collema furfuraceum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Arnold) Du Rietz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>ex.</t>
+          <t>bålar</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Svartmyran, Mpd</t>
+          <t>S Svartmyran, Mpd</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>616762</v>
+        <v>616863</v>
       </c>
       <c r="R8" t="n">
-        <v>6934714</v>
+        <v>6934788</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1486,7 +1486,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>2025_0743</t>
+          <t>2025_0758</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>11:39</t>
+          <t>14:47</t>
         </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>Två kläckhål</t>
+          <t>Asp</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>David Isaksson</t>
+          <t>Måns Svensson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
